--- a/rtss-pre1917/pre1917-chart.xlsx
+++ b/rtss-pre1917/pre1917-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\@@\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A462F-861F-4803-8099-58795BD369F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30362DB7-07A2-4876-B5EB-52932A88F2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="735" windowWidth="24870" windowHeight="22845" xr2:uid="{77F34BE6-AA97-404D-9A68-F84965E2857D}"/>
+    <workbookView xWindow="705" yWindow="1380" windowWidth="32910" windowHeight="19110" xr2:uid="{77F34BE6-AA97-404D-9A68-F84965E2857D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,11 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,61 +372,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>52.7</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.7</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.4</c:v>
+                  <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.1</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.9</c:v>
+                  <c:v>52.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.5</c:v>
+                  <c:v>51.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.4</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>52.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.3</c:v>
+                  <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.5</c:v>
+                  <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.2</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.9</c:v>
+                  <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.8</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.1</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.8</c:v>
+                  <c:v>48.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.7</c:v>
+                  <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.4</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,31 +833,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.6</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.6</c:v>
+                  <c:v>33.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.4</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.4</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.9</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.299999999999997</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34.799999999999997</c:v>
@@ -869,22 +866,22 @@
                   <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.299999999999997</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>32.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.4</c:v>
+                  <c:v>34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.6</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.3</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>31.7</c:v>
@@ -1298,19 +1295,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15.9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.899999999999999</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.8</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.5</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
@@ -1346,13 +1343,13 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,7 +2441,7 @@
   <dimension ref="A3:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,302 +2450,302 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1896</v>
       </c>
-      <c r="B4" s="6">
-        <v>52.7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D4" s="6">
-        <v>15.9</v>
+      <c r="B4" s="5">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>1897</v>
       </c>
-      <c r="B5" s="6">
-        <v>52.7</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5">
+        <v>34.9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1898</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1899</v>
+      </c>
+      <c r="B7" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D7" s="5">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1900</v>
+      </c>
+      <c r="B8" s="5">
+        <v>52.1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1901</v>
+      </c>
+      <c r="B9" s="5">
+        <v>51.7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1902</v>
+      </c>
+      <c r="B10" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1903</v>
+      </c>
+      <c r="B11" s="5">
+        <v>52.1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1904</v>
+      </c>
+      <c r="B12" s="5">
+        <v>52.4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1905</v>
+      </c>
+      <c r="B13" s="5">
+        <v>48.6</v>
+      </c>
+      <c r="C13" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="D5" s="6">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1898</v>
-      </c>
-      <c r="B6" s="6">
-        <v>50.4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>36.6</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D13" s="5">
         <v>13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1899</v>
-      </c>
-      <c r="B7" s="6">
-        <v>51.1</v>
-      </c>
-      <c r="C7" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1906</v>
+      </c>
+      <c r="B14" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="C14" s="5">
         <v>33.6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D14" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1907</v>
+      </c>
+      <c r="B15" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1908</v>
+      </c>
+      <c r="B16" s="5">
+        <v>49.8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1909</v>
+      </c>
+      <c r="B17" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1910</v>
+      </c>
+      <c r="B18" s="5">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D18" s="5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1911</v>
+      </c>
+      <c r="B19" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1912</v>
+      </c>
+      <c r="B20" s="5">
+        <v>48.7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="D20" s="5">
         <v>17.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B8" s="6">
-        <v>51.9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>34.4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1901</v>
-      </c>
-      <c r="B9" s="6">
-        <v>51.5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1902</v>
-      </c>
-      <c r="B10" s="6">
-        <v>52.4</v>
-      </c>
-      <c r="C10" s="6">
-        <v>35.4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1903</v>
-      </c>
-      <c r="B11" s="6">
-        <v>52.1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>32.9</v>
-      </c>
-      <c r="D11" s="6">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1904</v>
-      </c>
-      <c r="B12" s="6">
-        <v>52.3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D12" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1905</v>
-      </c>
-      <c r="B13" s="6">
-        <v>48.5</v>
-      </c>
-      <c r="C13" s="6">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="D13" s="6">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1906</v>
-      </c>
-      <c r="B14" s="6">
-        <v>51.2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>33.6</v>
-      </c>
-      <c r="D14" s="6">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1907</v>
-      </c>
-      <c r="B15" s="6">
-        <v>51.3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="D15" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1908</v>
-      </c>
-      <c r="B16" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="C16" s="6">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1913</v>
+      </c>
+      <c r="B21" s="5">
+        <v>48.6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="D21" s="5">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B17" s="6">
-        <v>49.8</v>
-      </c>
-      <c r="C17" s="6">
-        <v>34.4</v>
-      </c>
-      <c r="D17" s="6">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1910</v>
-      </c>
-      <c r="B18" s="6">
-        <v>51.1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="D18" s="6">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1911</v>
-      </c>
-      <c r="B19" s="6">
-        <v>50.7</v>
-      </c>
-      <c r="C19" s="6">
-        <v>31.6</v>
-      </c>
-      <c r="D19" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1912</v>
-      </c>
-      <c r="B20" s="6">
-        <v>48.8</v>
-      </c>
-      <c r="C20" s="6">
-        <v>31.3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1913</v>
-      </c>
-      <c r="B21" s="6">
-        <v>48.7</v>
-      </c>
-      <c r="C21" s="6">
-        <v>31.7</v>
-      </c>
-      <c r="D21" s="6">
-        <v>17</v>
-      </c>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>1914</v>
       </c>
-      <c r="B22" s="6">
-        <v>48.4</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="5">
+        <v>48.3</v>
+      </c>
+      <c r="C22" s="5">
         <v>31.4</v>
       </c>
-      <c r="D22" s="6">
-        <v>17</v>
+      <c r="D22" s="5">
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1896</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>64884644</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>52.7</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>15.9</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>1080902</v>
       </c>
     </row>
@@ -2756,19 +2753,19 @@
       <c r="A55">
         <v>1897</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>65965546</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>52.7</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>1200955</v>
       </c>
     </row>
@@ -2776,19 +2773,19 @@
       <c r="A56">
         <v>1898</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>67166501</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>50.4</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>36.6</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>13.8</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>954418</v>
       </c>
     </row>
@@ -2796,19 +2793,19 @@
       <c r="A57">
         <v>1899</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>68120919</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>51.1</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>33.6</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>17.5</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>1199971</v>
       </c>
     </row>
@@ -2816,19 +2813,19 @@
       <c r="A58">
         <v>1900</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>69320890</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>51.9</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>34.4</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>17.5</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>1278505</v>
       </c>
     </row>
@@ -2836,19 +2833,19 @@
       <c r="A59">
         <v>1901</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>70599395</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>51.5</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>35.6</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>16</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>1159449</v>
       </c>
     </row>
@@ -2856,19 +2853,19 @@
       <c r="A60">
         <v>1902</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>71758844</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>52.4</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>35.4</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>17</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>1240435</v>
       </c>
     </row>
@@ -2876,19 +2873,19 @@
       <c r="A61">
         <v>1903</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>72999279</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>52.1</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>32.9</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>1419825</v>
       </c>
     </row>
@@ -2896,19 +2893,19 @@
       <c r="A62">
         <v>1904</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>74419104</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>52.3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>19</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>1404305</v>
       </c>
     </row>
@@ -2916,19 +2913,19 @@
       <c r="A63">
         <v>1905</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>75823409</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>48.5</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>13.8</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>1036714</v>
       </c>
     </row>
@@ -2936,19 +2933,19 @@
       <c r="A64">
         <v>1906</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>76860123</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>51.2</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>33.6</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>1349265</v>
       </c>
     </row>
@@ -2956,19 +2953,19 @@
       <c r="A65">
         <v>1907</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>78209388</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>51.3</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>19</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>1666265</v>
       </c>
     </row>
@@ -2976,19 +2973,19 @@
       <c r="A66">
         <v>1908</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>79875653</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>49.9</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>33</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>1514334</v>
       </c>
     </row>
@@ -2996,19 +2993,19 @@
       <c r="A67">
         <v>1909</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>81389987</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>49.8</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>34.4</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>15.4</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>1383641</v>
       </c>
     </row>
@@ -3016,19 +3013,19 @@
       <c r="A68">
         <v>1910</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>82773628</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>51.1</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>35.799999999999997</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>15.3</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>1346776</v>
       </c>
     </row>
@@ -3036,19 +3033,19 @@
       <c r="A69">
         <v>1911</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>84120404</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>50.7</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>31.6</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>19</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>1626976</v>
       </c>
     </row>
@@ -3056,19 +3053,19 @@
       <c r="A70">
         <v>1912</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>85747380</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>48.8</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>31.3</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>1493281</v>
       </c>
     </row>
@@ -3076,19 +3073,19 @@
       <c r="A71">
         <v>1913</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>87240661</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>48.7</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>31.7</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>17</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>1453534</v>
       </c>
     </row>
@@ -3096,19 +3093,19 @@
       <c r="A72">
         <v>1914</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>88694195</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>48.4</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>31.4</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>17</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>1501904</v>
       </c>
     </row>
@@ -3116,7 +3113,7 @@
       <c r="A73">
         <v>1915</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>90196099</v>
       </c>
     </row>
@@ -3143,7 +3140,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -3160,153 +3157,153 @@
       <c r="A3">
         <v>1896</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>123324832</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>B3/1000000</f>
         <v>123.324832</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>1897</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>125419649</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G21" si="0">B4/1000000</f>
         <v>125.41964900000001</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A26" si="1">A4+1</f>
         <v>1898</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>127686834</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>127.686834</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>1899</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>129647646</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>129.64764600000001</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>131870210</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>131.87020999999999</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>1901</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>134165602</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>134.16560200000001</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>1902</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>136478758</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>136.478758</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>138821111</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>138.821111</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>1904</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>141252013</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>143848185</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>141403900</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>141.25201300000001</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <f t="shared" ref="I11:I21" si="2">D11/1000000</f>
         <v>143.848185</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" ref="J11:J21" si="3">E11/1000000</f>
         <v>141.40389999999999</v>
       </c>
@@ -3316,25 +3313,25 @@
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>143673004</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>145954605</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>143980100</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>143.67300399999999</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <f t="shared" si="2"/>
         <v>145.95460499999999</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="3"/>
         <v>143.98009999999999</v>
       </c>
@@ -3344,25 +3341,25 @@
         <f t="shared" si="1"/>
         <v>1906</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>145504681</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>147181326</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>146442100</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>145.50468100000001</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <f t="shared" si="2"/>
         <v>147.18132600000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>146.44210000000001</v>
       </c>
@@ -3372,25 +3369,25 @@
         <f t="shared" si="1"/>
         <v>1907</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>147796265</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>150319390</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>149084000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>147.79626500000001</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
         <f t="shared" si="2"/>
         <v>150.31939</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>149.084</v>
       </c>
@@ -3400,25 +3397,25 @@
         <f t="shared" si="1"/>
         <v>1908</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>150332393</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>153334999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>152464700</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>150.332393</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <f t="shared" si="2"/>
         <v>153.33499900000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>152.46469999999999</v>
       </c>
@@ -3428,25 +3425,25 @@
         <f t="shared" si="1"/>
         <v>1909</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>152728506</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>157185556</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>157079500</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>152.72850600000001</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <f t="shared" si="2"/>
         <v>157.18555599999999</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>157.0795</v>
       </c>
@@ -3456,25 +3453,25 @@
         <f t="shared" si="1"/>
         <v>1910</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>154986588</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>160229948</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>160748400</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>154.98658800000001</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
         <f t="shared" si="2"/>
         <v>160.22994800000001</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>160.7484</v>
       </c>
@@ -3484,25 +3481,25 @@
         <f t="shared" si="1"/>
         <v>1911</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>157072478</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>164190147</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>163919000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>157.07247799999999</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
         <f t="shared" si="2"/>
         <v>164.190147</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>163.91900000000001</v>
       </c>
@@ -3512,25 +3509,25 @@
         <f t="shared" si="1"/>
         <v>1912</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>159810616</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>167520069</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>167919800</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>159.81061600000001</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
         <v>167.52006900000001</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>167.91980000000001</v>
       </c>
@@ -3540,25 +3537,25 @@
         <f t="shared" si="1"/>
         <v>1913</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>162545975</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>170768546</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>170902900</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>162.545975</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <f t="shared" si="2"/>
         <v>170.76854599999999</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>170.90289999999999</v>
       </c>
@@ -3568,25 +3565,25 @@
         <f t="shared" si="1"/>
         <v>1914</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>164966603</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>174094888</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>175137800</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>164.96660299999999</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <f t="shared" si="2"/>
         <v>174.094888</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>175.1378</v>
       </c>
@@ -3641,25 +3638,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3667,443 +3664,443 @@
       <c r="A4">
         <v>1896</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>123.324832</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1897</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>125.41964900000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>125.6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1898</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>127.686834</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>127.7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1899</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>129.64764600000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>129.69999999999999</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1900</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>131.87020999999999</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>131.9</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1901</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>134.16560200000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>134.19999999999999</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1902</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>136.478758</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>136.4</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1903</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>138.821111</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>138.80000000000001</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1904</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>141.25201300000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>141.19999999999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>143.848185</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>141.40389999999999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>D12-B12</f>
         <v>2.5961719999999957</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>E12-B12</f>
         <v>0.15188699999998789</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1905</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>143.67300399999999</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>143.69999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>145.95460499999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>143.98009999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" ref="F13:F22" si="0">D13-B13</f>
         <v>2.2816009999999949</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" ref="G13:G22" si="1">E13-B13</f>
         <v>0.30709600000000137</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1906</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>145.50468100000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>145.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>147.18132600000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>146.44210000000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>1.6766450000000077</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.93741900000000555</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1907</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>147.79626500000001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>147.80000000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>150.31939</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>149.084</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>2.5231249999999932</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>1.2877349999999979</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1908</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>150.332393</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>150.5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>153.33499900000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>152.46469999999999</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>3.0026060000000143</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>2.1323069999999973</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1909</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>152.72850600000001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>153</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>157.18555599999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>157.0795</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>4.4570499999999811</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>4.3509939999999858</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1910</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>154.98658800000001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>155.30000000000001</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>160.22994800000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>160.7484</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>5.2433599999999956</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>5.7618119999999919</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1911</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>157.07247799999999</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>157.5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>164.190147</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>163.91900000000001</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>7.1176690000000065</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>6.8465220000000215</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1912</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>159.81061600000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>160.19999999999999</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>167.52006900000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>167.91980000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>7.7094529999999963</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>8.1091839999999991</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1913</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>162.545975</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>163</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>170.76854599999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>170.90289999999999</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>8.2225709999999879</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>8.3569249999999897</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1914</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>164.96660299999999</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>165.7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>174.094888</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>175.1378</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>9.1282850000000053</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>10.171197000000006</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
